--- a/NRI_STLF_Data/WeatherData/T_Tehran/T_tehran94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_Tehran/T_tehran94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_Tehran\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="7">
   <si>
     <t>Rain</t>
   </si>
@@ -42,12 +47,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -135,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="C377" sqref="C377"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AB388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -467,7 +472,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -547,7 +552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -627,7 +632,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -704,7 +709,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -781,7 +786,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -861,7 +866,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -938,7 +943,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1637,7 +1642,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2025,7 +2030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2262,7 +2267,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2339,7 +2344,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2416,7 +2421,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2496,7 +2501,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2573,7 +2578,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2727,7 +2732,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2878,7 +2883,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2955,7 +2960,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3032,7 +3037,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3109,7 +3114,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3189,7 +3194,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3337,7 +3342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3648,7 +3653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3731,7 +3736,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3808,7 +3813,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3888,7 +3893,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4125,7 +4130,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4359,7 +4364,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4439,7 +4444,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4516,7 +4521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4593,7 +4598,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4756,7 +4761,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4833,7 +4838,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4910,7 +4915,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4987,7 +4992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5064,7 +5069,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5141,7 +5146,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5218,7 +5223,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5298,7 +5303,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5455,7 +5460,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5532,7 +5537,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5686,7 +5691,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5763,7 +5768,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5843,7 +5848,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5926,7 +5931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -6006,7 +6011,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -6086,7 +6091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6243,7 +6248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6320,7 +6325,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6397,7 +6402,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6474,7 +6479,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6551,7 +6556,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6628,7 +6633,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6708,7 +6713,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6791,7 +6796,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6868,7 +6873,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6945,7 +6950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -7019,7 +7024,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -7093,7 +7098,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7170,7 +7175,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7247,7 +7252,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7324,7 +7329,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7401,7 +7406,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7478,7 +7483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7555,7 +7560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7632,7 +7637,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7783,7 +7788,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7860,7 +7865,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7937,7 +7942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -8091,7 +8096,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8168,7 +8173,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8242,7 +8247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8319,7 +8324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8396,7 +8401,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8473,7 +8478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8550,7 +8555,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8627,7 +8632,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8704,7 +8709,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8781,7 +8786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8858,7 +8863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8935,7 +8940,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -9012,7 +9017,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -9089,7 +9094,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9166,7 +9171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9243,7 +9248,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9320,7 +9325,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9397,7 +9402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9474,7 +9479,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9551,7 +9556,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9628,7 +9633,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9708,7 +9713,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9788,7 +9793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9868,7 +9873,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9948,7 +9953,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -10025,7 +10030,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -10102,7 +10107,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10179,7 +10184,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10256,7 +10261,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10333,7 +10338,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10410,7 +10415,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10487,7 +10492,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10564,7 +10569,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10641,7 +10646,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10718,7 +10723,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10792,7 +10797,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10869,7 +10874,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10946,7 +10951,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -11023,7 +11028,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -11100,7 +11105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11177,7 +11182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11254,7 +11259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11331,7 +11336,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11408,7 +11413,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11485,7 +11490,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11562,7 +11567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11639,7 +11644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11713,7 +11718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11790,7 +11795,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11867,7 +11872,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11944,7 +11949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -12021,7 +12026,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -12098,7 +12103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12175,7 +12180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12252,7 +12257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12329,7 +12334,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12406,7 +12411,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12483,7 +12488,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12560,7 +12565,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12637,7 +12642,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12714,7 +12719,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12791,7 +12796,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12868,7 +12873,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12945,7 +12950,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -13022,7 +13027,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -13102,7 +13107,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -13182,7 +13187,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13262,7 +13267,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13339,7 +13344,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13416,7 +13421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13493,7 +13498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13570,7 +13575,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13647,7 +13652,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13724,7 +13729,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13804,7 +13809,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13881,7 +13886,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13958,7 +13963,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -14035,7 +14040,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -14112,7 +14117,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -14189,7 +14194,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14269,7 +14274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14349,7 +14354,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14429,7 +14434,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14509,7 +14514,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14589,7 +14594,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14666,7 +14671,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14740,7 +14745,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14814,7 +14819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14891,7 +14896,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14968,7 +14973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -15045,7 +15050,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -15122,7 +15127,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -15199,7 +15204,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15276,7 +15281,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15353,7 +15358,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15430,7 +15435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15510,7 +15515,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15587,7 +15592,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15667,7 +15672,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15747,7 +15752,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15824,7 +15829,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15901,7 +15906,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15978,7 +15983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -16055,7 +16060,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -16135,7 +16140,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -16212,7 +16217,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16289,7 +16294,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16363,7 +16368,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16440,7 +16445,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16517,7 +16522,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16594,7 +16599,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16671,7 +16676,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16751,7 +16756,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16828,7 +16833,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16902,7 +16907,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16979,7 +16984,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -17056,7 +17061,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -17133,7 +17138,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -17210,7 +17215,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17287,7 +17292,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17361,7 +17366,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17435,7 +17440,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17515,7 +17520,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17595,7 +17600,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17675,7 +17680,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17755,7 +17760,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17832,7 +17837,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17912,7 +17917,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17992,7 +17997,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -18072,7 +18077,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -18149,7 +18154,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -18229,7 +18234,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18306,7 +18311,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18383,7 +18388,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18460,7 +18465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18540,7 +18545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18620,7 +18625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18700,7 +18705,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18777,7 +18782,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18851,7 +18856,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18928,7 +18933,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -19002,7 +19007,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -19079,7 +19084,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -19156,7 +19161,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -19236,7 +19241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19316,7 +19321,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19396,7 +19401,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19473,7 +19478,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19547,7 +19552,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19621,7 +19626,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19695,7 +19700,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19769,7 +19774,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19846,7 +19851,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19923,7 +19928,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -20000,7 +20005,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -20074,7 +20079,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -20151,7 +20156,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -20231,7 +20236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -20311,7 +20316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20388,7 +20393,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20468,7 +20473,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20545,7 +20550,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20625,7 +20630,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20705,7 +20710,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20782,7 +20787,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20856,7 +20861,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20933,7 +20938,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -21010,7 +21015,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -21087,7 +21092,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -21161,7 +21166,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -21241,7 +21246,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -21321,7 +21326,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21398,7 +21403,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21475,7 +21480,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21555,7 +21560,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21632,7 +21637,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21712,7 +21717,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21789,7 +21794,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21863,7 +21868,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21937,7 +21942,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -22014,7 +22019,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -22091,7 +22096,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -22168,7 +22173,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -22245,7 +22250,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -22319,7 +22324,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22393,7 +22398,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22473,7 +22478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22553,7 +22558,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22633,7 +22638,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22713,7 +22718,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22790,7 +22795,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22867,7 +22872,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22944,7 +22949,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -23021,7 +23026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -23098,7 +23103,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -23178,7 +23183,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -23258,7 +23263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -23338,7 +23343,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23412,7 +23417,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23489,7 +23494,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23566,7 +23571,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23640,7 +23645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23717,7 +23722,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23794,7 +23799,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23868,7 +23873,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23945,7 +23950,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -24022,7 +24027,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -24099,7 +24104,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -24176,7 +24181,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -24253,7 +24258,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -24333,7 +24338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24413,7 +24418,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24493,7 +24498,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24570,7 +24575,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24650,7 +24655,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24727,7 +24732,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24801,7 +24806,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24878,7 +24883,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24955,7 +24960,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -25032,7 +25037,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -25109,7 +25114,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -25186,7 +25191,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -25260,7 +25265,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -25334,7 +25339,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25411,7 +25416,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25488,7 +25493,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25568,7 +25573,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25645,7 +25650,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25722,7 +25727,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25799,7 +25804,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25873,7 +25878,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25947,7 +25952,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -26024,7 +26029,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -26101,7 +26106,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -26178,7 +26183,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -26255,7 +26260,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -26332,7 +26337,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26409,7 +26414,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26489,7 +26494,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26566,7 +26571,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26643,7 +26648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26720,7 +26725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26800,7 +26805,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26877,7 +26882,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26954,7 +26959,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -27028,7 +27033,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -27105,7 +27110,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -27182,7 +27187,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -27259,7 +27264,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -27336,7 +27341,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27413,7 +27418,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27490,7 +27495,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27567,7 +27572,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27644,7 +27649,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27721,7 +27726,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27795,7 +27800,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27869,7 +27874,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27943,7 +27948,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -28020,7 +28025,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -28097,7 +28102,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -28174,7 +28179,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -28251,7 +28256,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -28331,7 +28336,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28411,7 +28416,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28491,7 +28496,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28568,7 +28573,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28643,1468 +28648,6 @@
       </c>
       <c r="AA365">
         <v>278</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>18</v>
-      </c>
-      <c r="G366">
-        <v>11</v>
-      </c>
-      <c r="H366">
-        <v>4</v>
-      </c>
-      <c r="I366">
-        <v>-1</v>
-      </c>
-      <c r="J366">
-        <v>-8</v>
-      </c>
-      <c r="K366">
-        <v>-11</v>
-      </c>
-      <c r="L366">
-        <v>39</v>
-      </c>
-      <c r="M366">
-        <v>24</v>
-      </c>
-      <c r="N366">
-        <v>6</v>
-      </c>
-      <c r="O366">
-        <v>1017</v>
-      </c>
-      <c r="P366">
-        <v>1014</v>
-      </c>
-      <c r="Q366">
-        <v>1011</v>
-      </c>
-      <c r="R366">
-        <v>14</v>
-      </c>
-      <c r="S366">
-        <v>10</v>
-      </c>
-      <c r="T366">
-        <v>10</v>
-      </c>
-      <c r="U366">
-        <v>37</v>
-      </c>
-      <c r="V366">
-        <v>21</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>6</v>
-      </c>
-      <c r="AA366">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>19</v>
-      </c>
-      <c r="G367">
-        <v>16</v>
-      </c>
-      <c r="H367">
-        <v>13</v>
-      </c>
-      <c r="I367">
-        <v>3</v>
-      </c>
-      <c r="J367">
-        <v>-1</v>
-      </c>
-      <c r="K367">
-        <v>-2</v>
-      </c>
-      <c r="L367">
-        <v>44</v>
-      </c>
-      <c r="M367">
-        <v>31</v>
-      </c>
-      <c r="N367">
-        <v>15</v>
-      </c>
-      <c r="O367">
-        <v>1016</v>
-      </c>
-      <c r="P367">
-        <v>1013</v>
-      </c>
-      <c r="Q367">
-        <v>1007</v>
-      </c>
-      <c r="R367">
-        <v>10</v>
-      </c>
-      <c r="S367">
-        <v>10</v>
-      </c>
-      <c r="T367">
-        <v>10</v>
-      </c>
-      <c r="U367">
-        <v>29</v>
-      </c>
-      <c r="V367">
-        <v>10</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>5</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA367">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>16</v>
-      </c>
-      <c r="G368">
-        <v>12</v>
-      </c>
-      <c r="H368">
-        <v>8</v>
-      </c>
-      <c r="I368">
-        <v>6</v>
-      </c>
-      <c r="J368">
-        <v>4</v>
-      </c>
-      <c r="K368">
-        <v>1</v>
-      </c>
-      <c r="L368">
-        <v>82</v>
-      </c>
-      <c r="M368">
-        <v>63</v>
-      </c>
-      <c r="N368">
-        <v>34</v>
-      </c>
-      <c r="O368">
-        <v>1013</v>
-      </c>
-      <c r="P368">
-        <v>1011</v>
-      </c>
-      <c r="Q368">
-        <v>1004</v>
-      </c>
-      <c r="R368">
-        <v>10</v>
-      </c>
-      <c r="S368">
-        <v>9</v>
-      </c>
-      <c r="T368">
-        <v>3</v>
-      </c>
-      <c r="U368">
-        <v>55</v>
-      </c>
-      <c r="V368">
-        <v>16</v>
-      </c>
-      <c r="X368">
-        <v>8.89</v>
-      </c>
-      <c r="Y368">
-        <v>5</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA368">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>15</v>
-      </c>
-      <c r="G369">
-        <v>9</v>
-      </c>
-      <c r="H369">
-        <v>3</v>
-      </c>
-      <c r="I369">
-        <v>4</v>
-      </c>
-      <c r="J369">
-        <v>-2</v>
-      </c>
-      <c r="K369">
-        <v>-11</v>
-      </c>
-      <c r="L369">
-        <v>81</v>
-      </c>
-      <c r="M369">
-        <v>46</v>
-      </c>
-      <c r="N369">
-        <v>9</v>
-      </c>
-      <c r="O369">
-        <v>1015</v>
-      </c>
-      <c r="P369">
-        <v>1012</v>
-      </c>
-      <c r="Q369">
-        <v>1009</v>
-      </c>
-      <c r="R369">
-        <v>14</v>
-      </c>
-      <c r="S369">
-        <v>10</v>
-      </c>
-      <c r="T369">
-        <v>8</v>
-      </c>
-      <c r="U369">
-        <v>48</v>
-      </c>
-      <c r="V369">
-        <v>26</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>1</v>
-      </c>
-      <c r="AA369">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>19</v>
-      </c>
-      <c r="G370">
-        <v>12</v>
-      </c>
-      <c r="H370">
-        <v>6</v>
-      </c>
-      <c r="I370">
-        <v>-2</v>
-      </c>
-      <c r="J370">
-        <v>-5</v>
-      </c>
-      <c r="K370">
-        <v>-8</v>
-      </c>
-      <c r="L370">
-        <v>53</v>
-      </c>
-      <c r="M370">
-        <v>30</v>
-      </c>
-      <c r="N370">
-        <v>8</v>
-      </c>
-      <c r="O370">
-        <v>1021</v>
-      </c>
-      <c r="P370">
-        <v>1019</v>
-      </c>
-      <c r="Q370">
-        <v>1015</v>
-      </c>
-      <c r="R370">
-        <v>11</v>
-      </c>
-      <c r="S370">
-        <v>10</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>23</v>
-      </c>
-      <c r="V370">
-        <v>10</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>6</v>
-      </c>
-      <c r="AA370">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>21</v>
-      </c>
-      <c r="G371">
-        <v>16</v>
-      </c>
-      <c r="H371">
-        <v>9</v>
-      </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
-      <c r="J371">
-        <v>-4</v>
-      </c>
-      <c r="K371">
-        <v>-10</v>
-      </c>
-      <c r="L371">
-        <v>44</v>
-      </c>
-      <c r="M371">
-        <v>25</v>
-      </c>
-      <c r="N371">
-        <v>6</v>
-      </c>
-      <c r="O371">
-        <v>1022</v>
-      </c>
-      <c r="P371">
-        <v>1019</v>
-      </c>
-      <c r="Q371">
-        <v>1013</v>
-      </c>
-      <c r="R371">
-        <v>10</v>
-      </c>
-      <c r="S371">
-        <v>10</v>
-      </c>
-      <c r="T371">
-        <v>10</v>
-      </c>
-      <c r="U371">
-        <v>29</v>
-      </c>
-      <c r="V371">
-        <v>8</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>5</v>
-      </c>
-      <c r="AA371">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>18</v>
-      </c>
-      <c r="G372">
-        <v>14</v>
-      </c>
-      <c r="H372">
-        <v>11</v>
-      </c>
-      <c r="I372">
-        <v>8</v>
-      </c>
-      <c r="J372">
-        <v>3</v>
-      </c>
-      <c r="K372">
-        <v>-4</v>
-      </c>
-      <c r="L372">
-        <v>77</v>
-      </c>
-      <c r="M372">
-        <v>49</v>
-      </c>
-      <c r="N372">
-        <v>11</v>
-      </c>
-      <c r="O372">
-        <v>1021</v>
-      </c>
-      <c r="P372">
-        <v>1018</v>
-      </c>
-      <c r="Q372">
-        <v>1013</v>
-      </c>
-      <c r="R372">
-        <v>10</v>
-      </c>
-      <c r="S372">
-        <v>8</v>
-      </c>
-      <c r="T372">
-        <v>6</v>
-      </c>
-      <c r="U372">
-        <v>34</v>
-      </c>
-      <c r="V372">
-        <v>10</v>
-      </c>
-      <c r="X372">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y372">
-        <v>7</v>
-      </c>
-      <c r="Z372" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA372">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>14</v>
-      </c>
-      <c r="G373">
-        <v>12</v>
-      </c>
-      <c r="H373">
-        <v>10</v>
-      </c>
-      <c r="I373">
-        <v>9</v>
-      </c>
-      <c r="J373">
-        <v>8</v>
-      </c>
-      <c r="K373">
-        <v>7</v>
-      </c>
-      <c r="L373">
-        <v>88</v>
-      </c>
-      <c r="M373">
-        <v>73</v>
-      </c>
-      <c r="N373">
-        <v>52</v>
-      </c>
-      <c r="O373">
-        <v>1018</v>
-      </c>
-      <c r="P373">
-        <v>1013</v>
-      </c>
-      <c r="Q373">
-        <v>1007</v>
-      </c>
-      <c r="R373">
-        <v>11</v>
-      </c>
-      <c r="S373">
-        <v>8</v>
-      </c>
-      <c r="T373">
-        <v>3</v>
-      </c>
-      <c r="U373">
-        <v>19</v>
-      </c>
-      <c r="V373">
-        <v>10</v>
-      </c>
-      <c r="X373">
-        <v>3.05</v>
-      </c>
-      <c r="Y373">
-        <v>8</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA373">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>21</v>
-      </c>
-      <c r="G374">
-        <v>16</v>
-      </c>
-      <c r="H374">
-        <v>10</v>
-      </c>
-      <c r="I374">
-        <v>8</v>
-      </c>
-      <c r="J374">
-        <v>4</v>
-      </c>
-      <c r="K374">
-        <v>-2</v>
-      </c>
-      <c r="L374">
-        <v>82</v>
-      </c>
-      <c r="M374">
-        <v>48</v>
-      </c>
-      <c r="N374">
-        <v>15</v>
-      </c>
-      <c r="O374">
-        <v>1012</v>
-      </c>
-      <c r="P374">
-        <v>1009</v>
-      </c>
-      <c r="Q374">
-        <v>1003</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>10</v>
-      </c>
-      <c r="T374">
-        <v>8</v>
-      </c>
-      <c r="U374">
-        <v>34</v>
-      </c>
-      <c r="V374">
-        <v>14</v>
-      </c>
-      <c r="X374">
-        <v>0.25</v>
-      </c>
-      <c r="Y374">
-        <v>4</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>19</v>
-      </c>
-      <c r="G375">
-        <v>15</v>
-      </c>
-      <c r="H375">
-        <v>11</v>
-      </c>
-      <c r="I375">
-        <v>7</v>
-      </c>
-      <c r="J375">
-        <v>-2</v>
-      </c>
-      <c r="K375">
-        <v>-11</v>
-      </c>
-      <c r="L375">
-        <v>76</v>
-      </c>
-      <c r="M375">
-        <v>33</v>
-      </c>
-      <c r="N375">
-        <v>6</v>
-      </c>
-      <c r="O375">
-        <v>1010</v>
-      </c>
-      <c r="P375">
-        <v>1008</v>
-      </c>
-      <c r="Q375">
-        <v>1001</v>
-      </c>
-      <c r="R375">
-        <v>14</v>
-      </c>
-      <c r="S375">
-        <v>10</v>
-      </c>
-      <c r="T375">
-        <v>7</v>
-      </c>
-      <c r="U375">
-        <v>37</v>
-      </c>
-      <c r="V375">
-        <v>19</v>
-      </c>
-      <c r="X375">
-        <v>0.25</v>
-      </c>
-      <c r="Y375">
-        <v>4</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA375">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>15</v>
-      </c>
-      <c r="G376">
-        <v>12</v>
-      </c>
-      <c r="H376">
-        <v>9</v>
-      </c>
-      <c r="I376">
-        <v>-4</v>
-      </c>
-      <c r="J376">
-        <v>-7</v>
-      </c>
-      <c r="K376">
-        <v>-12</v>
-      </c>
-      <c r="L376">
-        <v>35</v>
-      </c>
-      <c r="M376">
-        <v>25</v>
-      </c>
-      <c r="N376">
-        <v>7</v>
-      </c>
-      <c r="O376">
-        <v>1015</v>
-      </c>
-      <c r="P376">
-        <v>1013</v>
-      </c>
-      <c r="Q376">
-        <v>1006</v>
-      </c>
-      <c r="R376">
-        <v>14</v>
-      </c>
-      <c r="S376">
-        <v>11</v>
-      </c>
-      <c r="T376">
-        <v>10</v>
-      </c>
-      <c r="U376">
-        <v>55</v>
-      </c>
-      <c r="V376">
-        <v>29</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>1</v>
-      </c>
-      <c r="AA376">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>17</v>
-      </c>
-      <c r="G377">
-        <v>11</v>
-      </c>
-      <c r="H377">
-        <v>6</v>
-      </c>
-      <c r="I377">
-        <v>-1</v>
-      </c>
-      <c r="J377">
-        <v>-7</v>
-      </c>
-      <c r="K377">
-        <v>-12</v>
-      </c>
-      <c r="L377">
-        <v>46</v>
-      </c>
-      <c r="M377">
-        <v>28</v>
-      </c>
-      <c r="N377">
-        <v>6</v>
-      </c>
-      <c r="O377">
-        <v>1018</v>
-      </c>
-      <c r="P377">
-        <v>1014</v>
-      </c>
-      <c r="Q377">
-        <v>1010</v>
-      </c>
-      <c r="R377">
-        <v>11</v>
-      </c>
-      <c r="S377">
-        <v>10</v>
-      </c>
-      <c r="T377">
-        <v>10</v>
-      </c>
-      <c r="U377">
-        <v>26</v>
-      </c>
-      <c r="V377">
-        <v>10</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>4</v>
-      </c>
-      <c r="AA377">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>7</v>
-      </c>
-      <c r="G378">
-        <v>6</v>
-      </c>
-      <c r="H378">
-        <v>5</v>
-      </c>
-      <c r="I378">
-        <v>4</v>
-      </c>
-      <c r="J378">
-        <v>2</v>
-      </c>
-      <c r="K378">
-        <v>-3</v>
-      </c>
-      <c r="L378">
-        <v>87</v>
-      </c>
-      <c r="M378">
-        <v>71</v>
-      </c>
-      <c r="N378">
-        <v>33</v>
-      </c>
-      <c r="O378">
-        <v>1021</v>
-      </c>
-      <c r="P378">
-        <v>1016</v>
-      </c>
-      <c r="Q378">
-        <v>1011</v>
-      </c>
-      <c r="R378">
-        <v>10</v>
-      </c>
-      <c r="S378">
-        <v>8</v>
-      </c>
-      <c r="T378">
-        <v>3</v>
-      </c>
-      <c r="U378">
-        <v>26</v>
-      </c>
-      <c r="V378">
-        <v>16</v>
-      </c>
-      <c r="X378">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y378">
-        <v>7</v>
-      </c>
-      <c r="Z378" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA378">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>14</v>
-      </c>
-      <c r="G379">
-        <v>8</v>
-      </c>
-      <c r="H379">
-        <v>2</v>
-      </c>
-      <c r="I379">
-        <v>1</v>
-      </c>
-      <c r="J379">
-        <v>-3</v>
-      </c>
-      <c r="K379">
-        <v>-6</v>
-      </c>
-      <c r="L379">
-        <v>81</v>
-      </c>
-      <c r="M379">
-        <v>47</v>
-      </c>
-      <c r="N379">
-        <v>14</v>
-      </c>
-      <c r="O379">
-        <v>1021</v>
-      </c>
-      <c r="P379">
-        <v>1018</v>
-      </c>
-      <c r="Q379">
-        <v>1016</v>
-      </c>
-      <c r="R379">
-        <v>14</v>
-      </c>
-      <c r="S379">
-        <v>10</v>
-      </c>
-      <c r="T379">
-        <v>10</v>
-      </c>
-      <c r="U379">
-        <v>34</v>
-      </c>
-      <c r="V379">
-        <v>14</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>2</v>
-      </c>
-      <c r="AA379">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>18</v>
-      </c>
-      <c r="G380">
-        <v>12</v>
-      </c>
-      <c r="H380">
-        <v>6</v>
-      </c>
-      <c r="I380">
-        <v>-2</v>
-      </c>
-      <c r="J380">
-        <v>-7</v>
-      </c>
-      <c r="K380">
-        <v>-15</v>
-      </c>
-      <c r="L380">
-        <v>57</v>
-      </c>
-      <c r="M380">
-        <v>28</v>
-      </c>
-      <c r="N380">
-        <v>5</v>
-      </c>
-      <c r="O380">
-        <v>1018</v>
-      </c>
-      <c r="P380">
-        <v>1016</v>
-      </c>
-      <c r="Q380">
-        <v>1012</v>
-      </c>
-      <c r="R380">
-        <v>14</v>
-      </c>
-      <c r="S380">
-        <v>10</v>
-      </c>
-      <c r="T380">
-        <v>10</v>
-      </c>
-      <c r="U380">
-        <v>19</v>
-      </c>
-      <c r="V380">
-        <v>6</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>4</v>
-      </c>
-      <c r="AA380">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>19</v>
-      </c>
-      <c r="G381">
-        <v>14</v>
-      </c>
-      <c r="H381">
-        <v>11</v>
-      </c>
-      <c r="I381">
-        <v>2</v>
-      </c>
-      <c r="J381">
-        <v>-3</v>
-      </c>
-      <c r="K381">
-        <v>-7</v>
-      </c>
-      <c r="L381">
-        <v>54</v>
-      </c>
-      <c r="M381">
-        <v>29</v>
-      </c>
-      <c r="N381">
-        <v>12</v>
-      </c>
-      <c r="O381">
-        <v>1015</v>
-      </c>
-      <c r="P381">
-        <v>1014</v>
-      </c>
-      <c r="Q381">
-        <v>1008</v>
-      </c>
-      <c r="R381">
-        <v>14</v>
-      </c>
-      <c r="S381">
-        <v>10</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>48</v>
-      </c>
-      <c r="V381">
-        <v>18</v>
-      </c>
-      <c r="W381">
-        <v>55</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>3</v>
-      </c>
-      <c r="AA381">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>21</v>
-      </c>
-      <c r="G382">
-        <v>15</v>
-      </c>
-      <c r="H382">
-        <v>9</v>
-      </c>
-      <c r="I382">
-        <v>7</v>
-      </c>
-      <c r="J382">
-        <v>-3</v>
-      </c>
-      <c r="K382">
-        <v>-9</v>
-      </c>
-      <c r="L382">
-        <v>68</v>
-      </c>
-      <c r="M382">
-        <v>30</v>
-      </c>
-      <c r="N382">
-        <v>8</v>
-      </c>
-      <c r="O382">
-        <v>1015</v>
-      </c>
-      <c r="P382">
-        <v>1013</v>
-      </c>
-      <c r="Q382">
-        <v>1008</v>
-      </c>
-      <c r="R382">
-        <v>14</v>
-      </c>
-      <c r="S382">
-        <v>10</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>37</v>
-      </c>
-      <c r="V382">
-        <v>19</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>2</v>
-      </c>
-      <c r="AA382">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>22</v>
-      </c>
-      <c r="G383">
-        <v>17</v>
-      </c>
-      <c r="H383">
-        <v>11</v>
-      </c>
-      <c r="I383">
-        <v>0</v>
-      </c>
-      <c r="J383">
-        <v>-4</v>
-      </c>
-      <c r="K383">
-        <v>-8</v>
-      </c>
-      <c r="L383">
-        <v>44</v>
-      </c>
-      <c r="M383">
-        <v>23</v>
-      </c>
-      <c r="N383">
-        <v>7</v>
-      </c>
-      <c r="O383">
-        <v>1016</v>
-      </c>
-      <c r="P383">
-        <v>1013</v>
-      </c>
-      <c r="Q383">
-        <v>1008</v>
-      </c>
-      <c r="R383">
-        <v>11</v>
-      </c>
-      <c r="S383">
-        <v>10</v>
-      </c>
-      <c r="T383">
-        <v>8</v>
-      </c>
-      <c r="U383">
-        <v>19</v>
-      </c>
-      <c r="V383">
-        <v>10</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>1</v>
-      </c>
-      <c r="AA383">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>24</v>
-      </c>
-      <c r="G384">
-        <v>18</v>
-      </c>
-      <c r="H384">
-        <v>12</v>
-      </c>
-      <c r="I384">
-        <v>-3</v>
-      </c>
-      <c r="J384">
-        <v>-6</v>
-      </c>
-      <c r="K384">
-        <v>-11</v>
-      </c>
-      <c r="L384">
-        <v>33</v>
-      </c>
-      <c r="M384">
-        <v>18</v>
-      </c>
-      <c r="N384">
-        <v>4</v>
-      </c>
-      <c r="O384">
-        <v>1016</v>
-      </c>
-      <c r="P384">
-        <v>1013</v>
-      </c>
-      <c r="Q384">
-        <v>1007</v>
-      </c>
-      <c r="R384">
-        <v>11</v>
-      </c>
-      <c r="S384">
-        <v>10</v>
-      </c>
-      <c r="T384">
-        <v>10</v>
-      </c>
-      <c r="U384">
-        <v>37</v>
-      </c>
-      <c r="V384">
-        <v>11</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>1</v>
-      </c>
-      <c r="AA384">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>23</v>
-      </c>
-      <c r="G385">
-        <v>17</v>
-      </c>
-      <c r="H385">
-        <v>10</v>
-      </c>
-      <c r="I385">
-        <v>3</v>
-      </c>
-      <c r="J385">
-        <v>-2</v>
-      </c>
-      <c r="K385">
-        <v>-5</v>
-      </c>
-      <c r="L385">
-        <v>45</v>
-      </c>
-      <c r="M385">
-        <v>27</v>
-      </c>
-      <c r="N385">
-        <v>8</v>
-      </c>
-      <c r="O385">
-        <v>1018</v>
-      </c>
-      <c r="P385">
-        <v>1015</v>
-      </c>
-      <c r="Q385">
-        <v>1009</v>
-      </c>
-      <c r="R385">
-        <v>11</v>
-      </c>
-      <c r="S385">
-        <v>10</v>
-      </c>
-      <c r="T385">
-        <v>10</v>
-      </c>
-      <c r="U385">
-        <v>19</v>
-      </c>
-      <c r="V385">
-        <v>8</v>
-      </c>
-      <c r="W385">
-        <v>37</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>3</v>
-      </c>
-      <c r="AA385">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>20</v>
-      </c>
-      <c r="G386">
-        <v>16</v>
-      </c>
-      <c r="H386">
-        <v>11</v>
-      </c>
-      <c r="I386">
-        <v>7</v>
-      </c>
-      <c r="J386">
-        <v>3</v>
-      </c>
-      <c r="K386">
-        <v>0</v>
-      </c>
-      <c r="L386">
-        <v>72</v>
-      </c>
-      <c r="M386">
-        <v>40</v>
-      </c>
-      <c r="N386">
-        <v>21</v>
-      </c>
-      <c r="O386">
-        <v>1019</v>
-      </c>
-      <c r="P386">
-        <v>1016</v>
-      </c>
-      <c r="Q386">
-        <v>1011</v>
-      </c>
-      <c r="R386">
-        <v>10</v>
-      </c>
-      <c r="S386">
-        <v>10</v>
-      </c>
-      <c r="T386">
-        <v>7</v>
-      </c>
-      <c r="U386">
-        <v>23</v>
-      </c>
-      <c r="V386">
-        <v>10</v>
-      </c>
-      <c r="X386">
-        <v>1.02</v>
-      </c>
-      <c r="Y386">
-        <v>4</v>
-      </c>
-      <c r="Z386" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA386">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>23</v>
-      </c>
-      <c r="G387">
-        <v>18</v>
-      </c>
-      <c r="H387">
-        <v>12</v>
-      </c>
-      <c r="I387">
-        <v>10</v>
-      </c>
-      <c r="J387">
-        <v>3</v>
-      </c>
-      <c r="K387">
-        <v>-1</v>
-      </c>
-      <c r="L387">
-        <v>68</v>
-      </c>
-      <c r="M387">
-        <v>37</v>
-      </c>
-      <c r="N387">
-        <v>15</v>
-      </c>
-      <c r="O387">
-        <v>1019</v>
-      </c>
-      <c r="P387">
-        <v>1017</v>
-      </c>
-      <c r="Q387">
-        <v>1011</v>
-      </c>
-      <c r="R387">
-        <v>10</v>
-      </c>
-      <c r="S387">
-        <v>10</v>
-      </c>
-      <c r="T387">
-        <v>10</v>
-      </c>
-      <c r="U387">
-        <v>34</v>
-      </c>
-      <c r="V387">
-        <v>8</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>4</v>
-      </c>
-      <c r="Z387" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA387">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>23</v>
-      </c>
-      <c r="G388">
-        <v>17</v>
-      </c>
-      <c r="H388">
-        <v>11</v>
-      </c>
-      <c r="I388">
-        <v>10</v>
-      </c>
-      <c r="J388">
-        <v>7</v>
-      </c>
-      <c r="K388">
-        <v>2</v>
-      </c>
-      <c r="L388">
-        <v>82</v>
-      </c>
-      <c r="M388">
-        <v>56</v>
-      </c>
-      <c r="N388">
-        <v>17</v>
-      </c>
-      <c r="O388">
-        <v>1017</v>
-      </c>
-      <c r="P388">
-        <v>1015</v>
-      </c>
-      <c r="Q388">
-        <v>1009</v>
-      </c>
-      <c r="R388">
-        <v>10</v>
-      </c>
-      <c r="S388">
-        <v>8</v>
-      </c>
-      <c r="T388">
-        <v>3</v>
-      </c>
-      <c r="U388">
-        <v>40</v>
-      </c>
-      <c r="V388">
-        <v>16</v>
-      </c>
-      <c r="X388">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y388">
-        <v>6</v>
-      </c>
-      <c r="Z388" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA388">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -30118,7 +28661,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30130,7 +28673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
